--- a/biology/Histoire de la zoologie et de la botanique/Carl_Alfred_Müller/Carl_Alfred_Müller.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carl_Alfred_Müller/Carl_Alfred_Müller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carl_Alfred_M%C3%BCller</t>
+          <t>Carl_Alfred_Müller</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Alfred Müller (ou Karl Alfred Ernst Müller ou Carolus Alfredus Mueller ; 1855-1907) est un botaniste allemand.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carl_Alfred_M%C3%BCller</t>
+          <t>Carl_Alfred_Müller</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Medicinalflora: Eine Einführung allgemeine und angewandte Morphologie und Systematik der Pflanzen, mit besonderer Rücksicht auf das Selbststudium für Pharmaceuten, Mediciner und Studirende - Berlin - J. Springer, 1890
 avec Eugen Otto Willy Ruhland, Carl Warnstorf, Viktor Ferdinand Brotherus - Musci (Laubmoose) Fortpflanzungsverhältnisse und entwicklungsgeschichte, 1. teil - 1909</t>
